--- a/SplendorDoc/splendor_methods.xlsx
+++ b/SplendorDoc/splendor_methods.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Player</t>
   </si>
@@ -118,6 +117,9 @@
   </si>
   <si>
     <t>give_back_token</t>
+  </si>
+  <si>
+    <t>&gt;</t>
   </si>
 </sst>
 </file>
@@ -272,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -294,6 +296,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,6 +420,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -419,15 +436,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -448,6 +456,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -460,7 +536,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="B3:G15" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6" headerRowCellStyle="Insatisfaisant" dataCellStyle="Insatisfaisant">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="B3:G15" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="B3:G15"/>
   <tableColumns count="6">
     <tableColumn id="1" name="GameRules (Controller)" dataDxfId="5"/>
@@ -479,7 +555,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="464646"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -740,7 +816,7 @@
   <dimension ref="A2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,8 +891,12 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -872,7 +952,9 @@
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -902,7 +984,9 @@
       <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>

--- a/SplendorDoc/splendor_methods.xlsx
+++ b/SplendorDoc/splendor_methods.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Player</t>
   </si>
@@ -104,9 +104,6 @@
     <t>event</t>
   </si>
   <si>
-    <t>click_token</t>
-  </si>
-  <si>
     <t>click_card</t>
   </si>
   <si>
@@ -120,6 +117,12 @@
   </si>
   <si>
     <t>&gt;</t>
+  </si>
+  <si>
+    <t>click_gameboard_token</t>
+  </si>
+  <si>
+    <t>click_player_token</t>
   </si>
 </sst>
 </file>
@@ -151,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -270,11 +273,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -299,9 +311,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,15 +434,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -436,6 +441,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -456,74 +470,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -536,7 +482,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="B3:G15" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="B3:G15" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
   <autoFilter ref="B3:G15"/>
   <tableColumns count="6">
     <tableColumn id="1" name="GameRules (Controller)" dataDxfId="5"/>
@@ -555,7 +501,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="464646"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -813,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G28"/>
+  <dimension ref="A2:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,7 +824,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -892,10 +838,10 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
@@ -903,7 +849,7 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -912,7 +858,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -925,7 +871,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -940,7 +886,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1018,35 +964,86 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
@@ -1056,6 +1053,9 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
